--- a/hw02/image_scale_chart.xlsx
+++ b/hw02/image_scale_chart.xlsx
@@ -440,7 +440,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I10"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
